--- a/Results/metrics.xlsx
+++ b/Results/metrics.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -512,45 +512,45 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>LogisticRegression</t>
+          <t>SVC</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.8547297297297297</v>
+        <v>0.8648648648648649</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8232044198895028</v>
+        <v>0.8448275862068966</v>
       </c>
       <c r="D4" t="n">
-        <v>0.93125</v>
+        <v>0.91875</v>
       </c>
       <c r="E4" t="n">
-        <v>0.873900293255132</v>
+        <v>0.8802395209580839</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9096507352941177</v>
+        <v>0.9105698529411764</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>XGBClassifier</t>
+          <t>NeuralNetwork</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.8581081081081081</v>
+        <v>0.9054054054054054</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8390804597701149</v>
+        <v>0.9024390243902439</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9125</v>
+        <v>0.925</v>
       </c>
       <c r="E5" t="n">
-        <v>0.874251497005988</v>
+        <v>0.9135802469135802</v>
       </c>
       <c r="F5" t="n">
-        <v>0.9118106617647059</v>
+        <v>0.9647977941176471</v>
       </c>
     </row>
     <row r="6">
@@ -595,6 +595,50 @@
       </c>
       <c r="F7" t="n">
         <v>0.9118106617647059</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>SVC</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0.8648648648648649</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.8448275862068966</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.91875</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.8802395209580839</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.9105698529411764</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>NeuralNetwork</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0.8986486486486487</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.8823529411764706</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.9375</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.9090909090909091</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.96796875</v>
       </c>
     </row>
   </sheetData>

--- a/Results/metrics.xlsx
+++ b/Results/metrics.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Metrics" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,143 +436,187 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Model</t>
+          <t>accuracy</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Accuracy</t>
+          <t>precision</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Precision</t>
+          <t>recall</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Recall</t>
+          <t>f1_score</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>F1 Score</t>
+          <t>roc_auc</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>ROC AUC</t>
+          <t>model</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="A2" t="n">
+        <v>0.8547297297297297</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0.8232044198895028</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.93125</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.873900293255132</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.9096507352941177</v>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>LogisticRegression</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>0.8581081081081081</v>
+      </c>
+      <c r="B3" t="n">
+        <v>0.8390804597701149</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.9125</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.874251497005988</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.9118106617647059</v>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>XGBClassifier</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>0.8648648648648649</v>
+      </c>
+      <c r="B4" t="n">
+        <v>0.8448275862068966</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.91875</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.8802395209580839</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.9105698529411764</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>SVC</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>0.8547297297297297</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0.8232044198895028</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.93125</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.873900293255132</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.9096507352941177</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>LogisticRegression</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>0.8581081081081081</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0.8390804597701149</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.9125</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.874251497005988</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.9118106617647059</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>XGBClassifier</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>0.8648648648648649</v>
+      </c>
+      <c r="B7" t="n">
+        <v>0.8448275862068966</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.91875</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.8802395209580839</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.9105698529411764</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>SVC</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>0.9054054054054054</v>
+      </c>
+      <c r="B8" t="n">
+        <v>0.8928571428571429</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.9375</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.9146341463414634</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.9671875</v>
+      </c>
+      <c r="F8" t="inlineStr">
         <is>
           <t>NeuralNetwork</t>
         </is>
-      </c>
-      <c r="B2" t="n">
-        <v>0.918918918918919</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0.9146341463414634</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.9375</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0.9259259259259259</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0.9730698529411765</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>LogisticRegression</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>0.8547297297297297</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0.8232044198895028</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.93125</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0.873900293255132</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0.9096507352941177</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>XGBClassifier</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>0.8581081081081081</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0.8390804597701149</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.9125</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0.874251497005988</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0.9118106617647059</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>SVC</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>0.8648648648648649</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0.8448275862068966</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.91875</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0.8802395209580839</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0.9105698529411764</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>NeuralNetwork</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>0.9222972972972973</v>
-      </c>
-      <c r="C6" t="n">
-        <v>0.9254658385093167</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.93125</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0.9283489096573209</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0.9799172794117647</v>
       </c>
     </row>
   </sheetData>

--- a/Results/metrics.xlsx
+++ b/Results/metrics.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -619,6 +619,72 @@
         </is>
       </c>
     </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>0.8918918918918919</v>
+      </c>
+      <c r="B9" t="n">
+        <v>0.8720930232558139</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.9375</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.9036144578313253</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.9623621323529412</v>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>NeuralNetwork</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>0.9459459459459459</v>
+      </c>
+      <c r="B10" t="n">
+        <v>0.9285714285714286</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.975</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.9512195121951219</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.9830882352941176</v>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>NeuralNetwork</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>0.9121621621621622</v>
+      </c>
+      <c r="B11" t="n">
+        <v>0.91875</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.91875</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.91875</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.9689797794117647</v>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>NeuralNetwork</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Results/metrics.xlsx
+++ b/Results/metrics.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -533,153 +533,21 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.8547297297297297</v>
+        <v>0.9155405405405406</v>
       </c>
       <c r="B5" t="n">
-        <v>0.8232044198895028</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="C5" t="n">
-        <v>0.93125</v>
+        <v>0.9375</v>
       </c>
       <c r="D5" t="n">
-        <v>0.873900293255132</v>
+        <v>0.9230769230769231</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9096507352941177</v>
+        <v>0.9722886029411765</v>
       </c>
       <c r="F5" t="inlineStr">
-        <is>
-          <t>LogisticRegression</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>0.8581081081081081</v>
-      </c>
-      <c r="B6" t="n">
-        <v>0.8390804597701149</v>
-      </c>
-      <c r="C6" t="n">
-        <v>0.9125</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.874251497005988</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0.9118106617647059</v>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>XGBClassifier</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>0.8648648648648649</v>
-      </c>
-      <c r="B7" t="n">
-        <v>0.8448275862068966</v>
-      </c>
-      <c r="C7" t="n">
-        <v>0.91875</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0.8802395209580839</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0.9105698529411764</v>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>SVC</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>0.9054054054054054</v>
-      </c>
-      <c r="B8" t="n">
-        <v>0.8928571428571429</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.9375</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0.9146341463414634</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0.9671875</v>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>NeuralNetwork</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>0.8918918918918919</v>
-      </c>
-      <c r="B9" t="n">
-        <v>0.8720930232558139</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.9375</v>
-      </c>
-      <c r="D9" t="n">
-        <v>0.9036144578313253</v>
-      </c>
-      <c r="E9" t="n">
-        <v>0.9623621323529412</v>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>NeuralNetwork</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>0.9459459459459459</v>
-      </c>
-      <c r="B10" t="n">
-        <v>0.9285714285714286</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.975</v>
-      </c>
-      <c r="D10" t="n">
-        <v>0.9512195121951219</v>
-      </c>
-      <c r="E10" t="n">
-        <v>0.9830882352941176</v>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>NeuralNetwork</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>0.9121621621621622</v>
-      </c>
-      <c r="B11" t="n">
-        <v>0.91875</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.91875</v>
-      </c>
-      <c r="D11" t="n">
-        <v>0.91875</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0.9689797794117647</v>
-      </c>
-      <c r="F11" t="inlineStr">
         <is>
           <t>NeuralNetwork</t>
         </is>

--- a/Results/metrics.xlsx
+++ b/Results/metrics.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -533,21 +533,87 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
+        <v>0.8547297297297297</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0.8232044198895028</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.93125</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.873900293255132</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.9096507352941177</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>LogisticRegression</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>0.8581081081081081</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0.8390804597701149</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.9125</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.874251497005988</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.9118106617647059</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>XGBClassifier</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>0.8648648648648649</v>
+      </c>
+      <c r="B7" t="n">
+        <v>0.8448275862068966</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.91875</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.8802395209580839</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.9105698529411764</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>SVC</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
         <v>0.9155405405405406</v>
       </c>
-      <c r="B5" t="n">
-        <v>0.9090909090909091</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0.9375</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.9230769230769231</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0.9722886029411765</v>
-      </c>
-      <c r="F5" t="inlineStr">
+      <c r="B8" t="n">
+        <v>0.8994082840236687</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.9240121580547113</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.9667279411764707</v>
+      </c>
+      <c r="F8" t="inlineStr">
         <is>
           <t>NeuralNetwork</t>
         </is>

--- a/Results/metrics.xlsx
+++ b/Results/metrics.xlsx
@@ -1,37 +1,78 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Pycharm\HeartAttack\Results\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDC358E0-13EC-4CFB-8260-22A8F4E8E664}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Metrics" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Metrics" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+  <si>
+    <t>accuracy</t>
+  </si>
+  <si>
+    <t>precision</t>
+  </si>
+  <si>
+    <t>recall</t>
+  </si>
+  <si>
+    <t>f1_score</t>
+  </si>
+  <si>
+    <t>roc_auc</t>
+  </si>
+  <si>
+    <t>model</t>
+  </si>
+  <si>
+    <t>LogisticRegression</t>
+  </si>
+  <si>
+    <t>XGBClassifier</t>
+  </si>
+  <si>
+    <t>SVC</t>
+  </si>
+  <si>
+    <t>NeuralNetwork</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,93 +87,43 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normalny" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -420,203 +411,116 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:F8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="6" max="6" width="17.5703125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>accuracy</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>precision</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>recall</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>f1_score</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>roc_auc</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>model</t>
-        </is>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>0.8547297297297297</v>
-      </c>
-      <c r="B2" t="n">
-        <v>0.8232044198895028</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0.93125</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.873900293255132</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0.9096507352941177</v>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>LogisticRegression</t>
-        </is>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>0.85472972972972971</v>
+      </c>
+      <c r="B2">
+        <v>0.82320441988950277</v>
+      </c>
+      <c r="C2">
+        <v>0.93125000000000002</v>
+      </c>
+      <c r="D2">
+        <v>0.87390029325513197</v>
+      </c>
+      <c r="E2">
+        <v>0.90965073529411766</v>
+      </c>
+      <c r="F2" t="s">
+        <v>6</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>0.8581081081081081</v>
-      </c>
-      <c r="B3" t="n">
-        <v>0.8390804597701149</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0.9125</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.874251497005988</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0.9118106617647059</v>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>XGBClassifier</t>
-        </is>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>0.85810810810810811</v>
+      </c>
+      <c r="B3">
+        <v>0.83908045977011492</v>
+      </c>
+      <c r="C3">
+        <v>0.91249999999999998</v>
+      </c>
+      <c r="D3">
+        <v>0.87425149700598803</v>
+      </c>
+      <c r="E3">
+        <v>0.91181066176470593</v>
+      </c>
+      <c r="F3" t="s">
+        <v>7</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>0.8648648648648649</v>
-      </c>
-      <c r="B4" t="n">
-        <v>0.8448275862068966</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0.91875</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.8802395209580839</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0.9105698529411764</v>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>SVC</t>
-        </is>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>0.86486486486486491</v>
+      </c>
+      <c r="B4">
+        <v>0.84482758620689657</v>
+      </c>
+      <c r="C4">
+        <v>0.91874999999999996</v>
+      </c>
+      <c r="D4">
+        <v>0.88023952095808389</v>
+      </c>
+      <c r="E4">
+        <v>0.91056985294117643</v>
+      </c>
+      <c r="F4" t="s">
+        <v>8</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>0.8547297297297297</v>
-      </c>
-      <c r="B5" t="n">
-        <v>0.8232044198895028</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0.93125</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.873900293255132</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0.9096507352941177</v>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>LogisticRegression</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>0.8581081081081081</v>
-      </c>
-      <c r="B6" t="n">
-        <v>0.8390804597701149</v>
-      </c>
-      <c r="C6" t="n">
-        <v>0.9125</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.874251497005988</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0.9118106617647059</v>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>XGBClassifier</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>0.8648648648648649</v>
-      </c>
-      <c r="B7" t="n">
-        <v>0.8448275862068966</v>
-      </c>
-      <c r="C7" t="n">
-        <v>0.91875</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0.8802395209580839</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0.9105698529411764</v>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>SVC</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>0.9155405405405406</v>
-      </c>
-      <c r="B8" t="n">
-        <v>0.8994082840236687</v>
-      </c>
-      <c r="C8" t="n">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>0.91554054054054057</v>
+      </c>
+      <c r="B5">
+        <v>0.89940828402366868</v>
+      </c>
+      <c r="C5">
         <v>0.95</v>
       </c>
-      <c r="D8" t="n">
-        <v>0.9240121580547113</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0.9667279411764707</v>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>NeuralNetwork</t>
-        </is>
+      <c r="D5">
+        <v>0.92401215805471126</v>
+      </c>
+      <c r="E5">
+        <v>0.96672794117647065</v>
+      </c>
+      <c r="F5" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
